--- a/conven_control/data/flat_data_v3.xlsx
+++ b/conven_control/data/flat_data_v3.xlsx
@@ -133,7 +133,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -313,19 +313,19 @@
         <v>0.6927</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.057</v>
+        <v>0.2436</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>-0.308</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>-114.4801</v>
+        <v>-117.42243</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>90</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>-114.0073009</v>
+        <v>-116.941219</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -364,10 +364,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -676,6 +676,26 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>0.6927</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>-0.308</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>-114.4801</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>-114.0073009</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
